--- a/Input/April_International_Thailand/benefits.xlsx
+++ b/Input/April_International_Thailand/benefits.xlsx
@@ -584,11 +584,11 @@
   </sheetPr>
   <dimension ref="A1:BD10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AT1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX4" activeCellId="0" sqref="AX4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BD3" activeCellId="0" sqref="BD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="16.9"/>

--- a/Input/April_International_Thailand/benefits.xlsx
+++ b/Input/April_International_Thailand/benefits.xlsx
@@ -269,70 +269,70 @@
     <t xml:space="preserve">IP THB 16375</t>
   </si>
   <si>
+    <t xml:space="preserve">Essential OP Nil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worldwide Excluding USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity (Consultations, Scans and Delivery) - Complications of Pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to THB 4,912,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP THB 163750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essential OP 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe and ASEAN excluding Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental - Dental_Waiting_Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to THB 8,187,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP THB 32750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extensive OP Nil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental - Optical Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP THB 327500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extensive OP 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental - Wellness &amp; Health Screening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP THB 81875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elite OP Nil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental - Alternative Medicines</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elite OP 20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worldwide Excluding USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternity (Consultations, Scans and Delivery) - Complications of Pregnancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extensive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to THB 4,912,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP THB 163750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elite OP Nil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe and ASEAN excluding Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental - Dental_Waiting_Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to THB 8,187,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP THB 32750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essential OP 20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental - Optical Benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP THB 327500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essential OP Nil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental - Wellness &amp; Health Screening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP THB 81875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extensive OP 20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental - Alternative Medicines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extensive OP Nil</t>
   </si>
   <si>
     <t xml:space="preserve">Dental - Mental Health Benefit</t>
@@ -584,13 +584,14 @@
   </sheetPr>
   <dimension ref="A1:BD10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BD3" activeCellId="0" sqref="BD3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR3" activeCellId="0" sqref="AR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="73.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="16.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="35.12"/>
